--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/06,25/30,06,25 Николаенко КСК (Андрею сбросить 02,07,25_вторник)/Заказ Николаенко Поком 30.06.25..xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/06,25/30,06,25 Николаенко КСК (Андрею сбросить 02,07,25_вторник)/Заказ Николаенко Поком 30.06.25..xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929E1EB5-59CF-48DE-A2CA-420554C7B0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B931EA01-0D4C-443D-BAC7-31BEE19BFC01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,12 +617,12 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -38679,7 +38679,7 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="88" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -38713,7 +38713,7 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="23"/>
-      <c r="M3" s="28"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
@@ -38750,7 +38750,7 @@
         <f>VLOOKUP(B4,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031403</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="27">
         <f>VLOOKUP(B4,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115886094</v>
       </c>
@@ -38794,7 +38794,7 @@
         <f>VLOOKUP(B5,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031402</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="27">
         <f>VLOOKUP(B5,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115886124</v>
       </c>
@@ -38838,7 +38838,7 @@
         <f>VLOOKUP(B6,[1]Лист1!$B:$F,3,0)</f>
         <v>4301020334</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="27">
         <f>VLOOKUP(B6,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091388930</v>
       </c>
@@ -38882,7 +38882,7 @@
         <f>VLOOKUP(B7,[1]Лист1!$B:$F,3,0)</f>
         <v>4301020178</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="27">
         <f>VLOOKUP(B7,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091383980</v>
       </c>
@@ -38926,7 +38926,7 @@
         <f>VLOOKUP(B8,[1]Лист1!$B:$F,3,0)</f>
         <v>4301020298</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="27">
         <f>VLOOKUP(B8,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115881440</v>
       </c>
@@ -38970,7 +38970,7 @@
         <f>VLOOKUP(B9,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011468</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="27">
         <f>VLOOKUP(B9,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115881327</v>
       </c>
@@ -39008,7 +39008,7 @@
         <f>VLOOKUP(B10,[1]Лист1!$B:$F,3,0)</f>
         <v>4301012030</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="27">
         <f>VLOOKUP(B10,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115885882</v>
       </c>
@@ -39048,7 +39048,7 @@
         <f>VLOOKUP(B11,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011816</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="27">
         <f>VLOOKUP(B11,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115881426</v>
       </c>
@@ -39092,7 +39092,7 @@
         <f>VLOOKUP(B12,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011867</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="27">
         <f>VLOOKUP(B12,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115884830</v>
       </c>
@@ -39136,7 +39136,7 @@
         <f>VLOOKUP(B13,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011380</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="27">
         <f>VLOOKUP(B13,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091385670</v>
       </c>
@@ -39180,7 +39180,7 @@
         <f>VLOOKUP(B14,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011795</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="27">
         <f>VLOOKUP(B14,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091389067</v>
       </c>
@@ -39224,7 +39224,7 @@
         <f>VLOOKUP(B15,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011875</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="27">
         <f>VLOOKUP(B15,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115884885</v>
       </c>
@@ -39268,7 +39268,7 @@
         <f>VLOOKUP(B16,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011376</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="27">
         <f>VLOOKUP(B16,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115885226</v>
       </c>
@@ -39308,7 +39308,7 @@
         <f>VLOOKUP(B17,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011961</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="27">
         <f>VLOOKUP(B17,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115885271</v>
       </c>
@@ -39352,7 +39352,7 @@
         <f>VLOOKUP(B18,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011771</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="27">
         <f>VLOOKUP(B18,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091389104</v>
       </c>
@@ -39396,7 +39396,7 @@
         <f>VLOOKUP(B19,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011869</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="27">
         <f>VLOOKUP(B19,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115884847</v>
       </c>
@@ -39434,7 +39434,7 @@
         <f>VLOOKUP(B20,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031191</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="27">
         <f>VLOOKUP(B20,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115880993</v>
       </c>
@@ -39474,7 +39474,7 @@
         <f>VLOOKUP(B21,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011584</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="27">
         <f>VLOOKUP(B21,[1]Лист1!$B:$F,4,0)</f>
         <v>4640242180564</v>
       </c>
@@ -39518,7 +39518,7 @@
         <f>VLOOKUP(B22,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011870</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="27">
         <f>VLOOKUP(B22,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115884854</v>
       </c>
@@ -39562,7 +39562,7 @@
         <f>VLOOKUP(B23,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031349</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="27">
         <f>VLOOKUP(B23,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115883116</v>
       </c>
@@ -39602,7 +39602,7 @@
         <f>VLOOKUP(B24,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031350</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="27">
         <f>VLOOKUP(B24,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115883093</v>
       </c>
@@ -39646,7 +39646,7 @@
         <f>VLOOKUP(B25,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031204</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="27">
         <f>VLOOKUP(B25,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115881761</v>
       </c>
@@ -39690,7 +39690,7 @@
         <f>VLOOKUP(B26,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031405</v>
       </c>
-      <c r="M26" s="28">
+      <c r="M26" s="27">
         <f>VLOOKUP(B26,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115886100</v>
       </c>
@@ -39734,7 +39734,7 @@
         <f>VLOOKUP(B27,[1]Лист1!$B:$F,3,0)</f>
         <v>4301060406</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M27" s="27">
         <f>VLOOKUP(B27,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091384482</v>
       </c>
@@ -39778,7 +39778,7 @@
         <f>VLOOKUP(B28,[1]Лист1!$B:$F,3,0)</f>
         <v>4301030878</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="27">
         <f>VLOOKUP(B28,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091387193</v>
       </c>
@@ -39822,7 +39822,7 @@
         <f>VLOOKUP(B29,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031353</v>
       </c>
-      <c r="M29" s="28">
+      <c r="M29" s="27">
         <f>VLOOKUP(B29,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115883109</v>
       </c>
@@ -39866,7 +39866,7 @@
         <f>VLOOKUP(B30,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031201</v>
       </c>
-      <c r="M30" s="28">
+      <c r="M30" s="27">
         <f>VLOOKUP(B30,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115881563</v>
       </c>
@@ -39910,7 +39910,7 @@
         <f>VLOOKUP(B31,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051724</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="27">
         <f>VLOOKUP(B31,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091385168</v>
       </c>
@@ -39950,7 +39950,7 @@
         <f>VLOOKUP(B32,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051100</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="27">
         <f>VLOOKUP(B32,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091387766</v>
       </c>
@@ -39994,7 +39994,7 @@
         <f>VLOOKUP(B33,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051310</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="27">
         <f>VLOOKUP(B33,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115880870</v>
       </c>
@@ -40038,7 +40038,7 @@
         <f>VLOOKUP(B34,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051712</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M34" s="27">
         <f>VLOOKUP(B34,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091386967</v>
       </c>
@@ -40078,7 +40078,7 @@
         <f>VLOOKUP(B35,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051899</v>
       </c>
-      <c r="M35" s="28">
+      <c r="M35" s="27">
         <f>VLOOKUP(B35,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091384246</v>
       </c>
@@ -40116,7 +40116,7 @@
         <f>VLOOKUP(B36,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051115</v>
       </c>
-      <c r="M36" s="28">
+      <c r="M36" s="27">
         <f>VLOOKUP(B36,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091387964</v>
       </c>
@@ -40156,7 +40156,7 @@
         <f>VLOOKUP(B37,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051408</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M37" s="27">
         <f>VLOOKUP(B37,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115881594</v>
       </c>
@@ -40196,7 +40196,7 @@
         <f>VLOOKUP(B38,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051411</v>
       </c>
-      <c r="M38" s="28">
+      <c r="M38" s="27">
         <f>VLOOKUP(B38,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115881617</v>
       </c>
@@ -40240,7 +40240,7 @@
         <f>VLOOKUP(B39,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031220</v>
       </c>
-      <c r="M39" s="28">
+      <c r="M39" s="27">
         <f>VLOOKUP(B39,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115882669</v>
       </c>
@@ -40284,7 +40284,7 @@
         <f>VLOOKUP(B40,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031224</v>
       </c>
-      <c r="M40" s="28">
+      <c r="M40" s="27">
         <f>VLOOKUP(B40,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115882683</v>
       </c>
@@ -40324,7 +40324,7 @@
         <f>VLOOKUP(B41,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031230</v>
       </c>
-      <c r="M41" s="28">
+      <c r="M41" s="27">
         <f>VLOOKUP(B41,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115882690</v>
       </c>
@@ -40368,7 +40368,7 @@
         <f>VLOOKUP(B42,[1]Лист1!$B:$F,3,0)</f>
         <v>4301031221</v>
       </c>
-      <c r="M42" s="28">
+      <c r="M42" s="27">
         <f>VLOOKUP(B42,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115882676</v>
       </c>
@@ -40412,7 +40412,7 @@
         <f>VLOOKUP(B43,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011850</v>
       </c>
-      <c r="M43" s="28">
+      <c r="M43" s="27">
         <f>VLOOKUP(B43,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115885806</v>
       </c>
@@ -40452,7 +40452,7 @@
         <f>VLOOKUP(B44,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011853</v>
       </c>
-      <c r="M44" s="28">
+      <c r="M44" s="27">
         <f>VLOOKUP(B44,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115885851</v>
       </c>
@@ -40490,7 +40490,7 @@
         <f>VLOOKUP(B45,[1]Лист1!$B:$F,3,0)</f>
         <v>4301020296</v>
       </c>
-      <c r="M45" s="28">
+      <c r="M45" s="27">
         <f>VLOOKUP(B45,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115881433</v>
       </c>
@@ -40530,7 +40530,7 @@
         <f>VLOOKUP(B46,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011443</v>
       </c>
-      <c r="M46" s="28">
+      <c r="M46" s="27">
         <f>VLOOKUP(B46,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115881303</v>
       </c>
@@ -40570,7 +40570,7 @@
         <f>VLOOKUP(B47,[1]Лист1!$B:$F,3,0)</f>
         <v>4301011801</v>
       </c>
-      <c r="M47" s="28">
+      <c r="M47" s="27">
         <f>VLOOKUP(B47,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115881419</v>
       </c>
@@ -40610,7 +40610,7 @@
         <f>VLOOKUP(B48,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051864</v>
       </c>
-      <c r="M48" s="28">
+      <c r="M48" s="27">
         <f>VLOOKUP(B48,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115883567</v>
       </c>
@@ -40650,7 +40650,7 @@
         <f>VLOOKUP(B49,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051461</v>
       </c>
-      <c r="M49" s="28">
+      <c r="M49" s="27">
         <f>VLOOKUP(B49,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115883604</v>
       </c>
@@ -40690,7 +40690,7 @@
         <f>VLOOKUP(B50,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051721</v>
       </c>
-      <c r="M50" s="28">
+      <c r="M50" s="27">
         <f>VLOOKUP(B50,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091385748</v>
       </c>
@@ -40728,7 +40728,7 @@
         <f>VLOOKUP(B51,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051407</v>
       </c>
-      <c r="M51" s="28">
+      <c r="M51" s="27">
         <f>VLOOKUP(B51,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115882195</v>
       </c>
@@ -40766,7 +40766,7 @@
         <f>VLOOKUP(B52,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051388</v>
       </c>
-      <c r="M52" s="28">
+      <c r="M52" s="27">
         <f>VLOOKUP(B52,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115881211</v>
       </c>
@@ -40806,7 +40806,7 @@
         <f>VLOOKUP(B53,[1]Лист1!$B:$F,3,0)</f>
         <v>4301052039</v>
       </c>
-      <c r="M53" s="28">
+      <c r="M53" s="27">
         <f>VLOOKUP(B53,[1]Лист1!$B:$F,4,0)</f>
         <v>4607091385731</v>
       </c>
@@ -40846,7 +40846,7 @@
         <f>VLOOKUP(B54,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051666</v>
       </c>
-      <c r="M54" s="28">
+      <c r="M54" s="27">
         <f>VLOOKUP(B54,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115880092</v>
       </c>
@@ -40884,7 +40884,7 @@
         <f>VLOOKUP(B55,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051795</v>
       </c>
-      <c r="M55" s="28">
+      <c r="M55" s="27">
         <f>VLOOKUP(B55,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115881228</v>
       </c>
@@ -40922,7 +40922,7 @@
         <f>VLOOKUP(B56,[1]Лист1!$B:$F,3,0)</f>
         <v>4301051410</v>
       </c>
-      <c r="M56" s="28">
+      <c r="M56" s="27">
         <f>VLOOKUP(B56,[1]Лист1!$B:$F,4,0)</f>
         <v>4680115882164</v>
       </c>
@@ -40932,10 +40932,10 @@
       </c>
     </row>
     <row r="57" spans="2:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="9"/>
       <c r="E57" s="7">
         <f>SUM(E4:E56)</f>
@@ -40953,7 +40953,7 @@
         <f>SUM(H4:H56)</f>
         <v>1574</v>
       </c>
-      <c r="M57" s="29"/>
+      <c r="M57" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
